--- a/k02/資格対策Ⅲ_学習予定_03_安達蒼馬.xlsx
+++ b/k02/資格対策Ⅲ_学習予定_03_安達蒼馬.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>前期資格対策Ⅲ　学習計画表</t>
   </si>
@@ -1572,7 +1572,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1634,8 +1634,12 @@
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="3">
+        <v>45586</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
